--- a/whois_results.xlsx
+++ b/whois_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -765,6 +765,236 @@
         </is>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>EXAMPLE.COM</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>RESERVED-Internet Assigned Numbers Authority</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>http://res-dom.iana.org</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>whois.iana.org</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2024-08-14 07:01:34</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>1995-08-14 04:00:00</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>2025-08-13 04:00:00</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>A.IANA-SERVERS.NET,B.IANA-SERVERS.NET</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>clientDeleteProhibited https://icann.org/epp#clientDeleteProhibited,clientTransferProhibited https://icann.org/epp#clientTransferProhibited,clientUpdateProhibited https://icann.org/epp#clientUpdateProhibited</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>signedDelegation</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr"/>
+      <c r="P5" t="inlineStr"/>
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr"/>
+      <c r="S5" t="inlineStr"/>
+      <c r="T5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>OPENAI.COM</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>MarkMonitor, Inc.</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>http://www.markmonitor.com</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>whois.markmonitor.com</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>[datetime.datetime(2024, 10, 17, 22, 20, 4), datetime.datetime(2024, 10, 17, 22, 2, 55, tzinfo=datetime.timezone.utc)]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[datetime.datetime(2007, 1, 19, 19, 28, 24), datetime.datetime(2007, 1, 19, 19, 28, 24, tzinfo=datetime.timezone.utc)]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>[datetime.datetime(2029, 1, 19, 19, 28, 24), datetime.datetime(2029, 1, 19, 19, 28, 24, tzinfo=datetime.timezone.utc)]</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>NS1-02.AZURE-DNS.COM,NS2-02.AZURE-DNS.NET,NS3-02.AZURE-DNS.ORG,NS4-02.AZURE-DNS.INFO</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>clientDeleteProhibited https://icann.org/epp#clientDeleteProhibited,clientTransferProhibited https://icann.org/epp#clientTransferProhibited,clientUpdateProhibited https://icann.org/epp#clientUpdateProhibited,serverDeleteProhibited https://icann.org/epp#serverDeleteProhibited,serverTransferProhibited https://icann.org/epp#serverTransferProhibited,serverUpdateProhibited https://icann.org/epp#serverUpdateProhibited,clientUpdateProhibited (https://www.icann.org/epp#clientUpdateProhibited),clientTransferProhibited (https://www.icann.org/epp#clientTransferProhibited),clientDeleteProhibited (https://www.icann.org/epp#clientDeleteProhibited),serverUpdateProhibited (https://www.icann.org/epp#serverUpdateProhibited),serverTransferProhibited (https://www.icann.org/epp#serverTransferProhibited),serverDeleteProhibited (https://www.icann.org/epp#serverDeleteProhibited)</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>['abusecomplaints@markmonitor.com', 'whoisrequest@markmonitor.com']</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>unsigned</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>OpenAI</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr"/>
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr"/>
+      <c r="S6" t="inlineStr"/>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>python.org</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Gandi SAS</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>http://www.gandi.net</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>http://whois.gandi.net</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2025-06-17 21:22:38</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>1995-03-27 05:00:00</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>2033-03-28 05:00:00</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>ns-1134.awsdns-13.org,ns-2046.awsdns-63.co.uk,ns-484.awsdns-60.com,ns-981.awsdns-58.net</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>c,l,i,e,n,t,T,r,a,n,s,f,e,r,P,r,o,h,i,b,i,t,e,d, ,h,t,t,p,s,:,/,/,i,c,a,n,n,.,o,r,g,/,e,p,p,#,c,l,i,e,n,t,T,r,a,n,s,f,e,r,P,r,o,h,i,b,i,t,e,d</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>abuse@support.gandi.net</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>unsigned</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>REDACTED</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>Python Software Foundation</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>REDACTED</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>REDACTED</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>OR</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>REDACTED</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/whois_results.xlsx
+++ b/whois_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:U52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,100 +436,105 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>domain</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>domain_name</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>registrar</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>registrar_url</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>reseller</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>whois_server</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>referral_url</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>updated_date</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>creation_date</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>expiration_date</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>name_servers</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>status</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>emails</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>dnssec</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>name</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>org</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>address</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>city</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>state</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>registrant_postal_code</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>country</t>
         </is>
@@ -538,57 +543,21 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>EXAMPLE.COM</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>RESERVED-Internet Assigned Numbers Authority</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>http://res-dom.iana.org</t>
-        </is>
-      </c>
+          <t>0-tab.film</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>whois.iana.org</t>
-        </is>
-      </c>
+      <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>2024-08-14 07:01:34</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>1995-08-14 04:00:00</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>2025-08-13 04:00:00</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>A.IANA-SERVERS.NET,B.IANA-SERVERS.NET</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>clientDeleteProhibited https://icann.org/epp#clientDeleteProhibited,clientTransferProhibited https://icann.org/epp#clientTransferProhibited,clientUpdateProhibited https://icann.org/epp#clientUpdateProhibited</t>
-        </is>
-      </c>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>signedDelegation</t>
-        </is>
-      </c>
+      <c r="M2" t="inlineStr"/>
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr"/>
       <c r="P2" t="inlineStr"/>
@@ -596,229 +565,80 @@
       <c r="R2" t="inlineStr"/>
       <c r="S2" t="inlineStr"/>
       <c r="T2" t="inlineStr"/>
+      <c r="U2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>OPENAI.COM</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>MarkMonitor, Inc.</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>http://www.markmonitor.com</t>
-        </is>
-      </c>
+          <t>00000101.film</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>whois.markmonitor.com</t>
-        </is>
-      </c>
+      <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>[datetime.datetime(2024, 10, 17, 22, 20, 4), datetime.datetime(2024, 10, 17, 22, 2, 55, tzinfo=datetime.timezone.utc)]</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>[datetime.datetime(2007, 1, 19, 19, 28, 24), datetime.datetime(2007, 1, 19, 19, 28, 24, tzinfo=datetime.timezone.utc)]</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>[datetime.datetime(2029, 1, 19, 19, 28, 24), datetime.datetime(2029, 1, 19, 19, 28, 24, tzinfo=datetime.timezone.utc)]</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>NS1-02.AZURE-DNS.COM,NS2-02.AZURE-DNS.NET,NS3-02.AZURE-DNS.ORG,NS4-02.AZURE-DNS.INFO</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>clientDeleteProhibited https://icann.org/epp#clientDeleteProhibited,clientTransferProhibited https://icann.org/epp#clientTransferProhibited,clientUpdateProhibited https://icann.org/epp#clientUpdateProhibited,serverDeleteProhibited https://icann.org/epp#serverDeleteProhibited,serverTransferProhibited https://icann.org/epp#serverTransferProhibited,serverUpdateProhibited https://icann.org/epp#serverUpdateProhibited,clientUpdateProhibited (https://www.icann.org/epp#clientUpdateProhibited),clientTransferProhibited (https://www.icann.org/epp#clientTransferProhibited),clientDeleteProhibited (https://www.icann.org/epp#clientDeleteProhibited),serverUpdateProhibited (https://www.icann.org/epp#serverUpdateProhibited),serverTransferProhibited (https://www.icann.org/epp#serverTransferProhibited),serverDeleteProhibited (https://www.icann.org/epp#serverDeleteProhibited)</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>['abusecomplaints@markmonitor.com', 'whoisrequest@markmonitor.com']</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>unsigned</t>
-        </is>
-      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
       <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>OpenAI</t>
-        </is>
-      </c>
+      <c r="O3" t="inlineStr"/>
       <c r="P3" t="inlineStr"/>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr"/>
       <c r="S3" t="inlineStr"/>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
+      <c r="T3" t="inlineStr"/>
+      <c r="U3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>python.org</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Gandi SAS</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>http://www.gandi.net</t>
-        </is>
-      </c>
+          <t>040.film</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>http://whois.gandi.net</t>
-        </is>
-      </c>
+      <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>2025-06-17 21:22:38</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>1995-03-27 05:00:00</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>2033-03-28 05:00:00</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>ns-1134.awsdns-13.org,ns-2046.awsdns-63.co.uk,ns-484.awsdns-60.com,ns-981.awsdns-58.net</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>c,l,i,e,n,t,T,r,a,n,s,f,e,r,P,r,o,h,i,b,i,t,e,d, ,h,t,t,p,s,:,/,/,i,c,a,n,n,.,o,r,g,/,e,p,p,#,c,l,i,e,n,t,T,r,a,n,s,f,e,r,P,r,o,h,i,b,i,t,e,d</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>abuse@support.gandi.net</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>unsigned</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>REDACTED</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>Python Software Foundation</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>REDACTED</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>REDACTED</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>OR</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>REDACTED</t>
-        </is>
-      </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr"/>
+      <c r="S4" t="inlineStr"/>
+      <c r="T4" t="inlineStr"/>
+      <c r="U4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>EXAMPLE.COM</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>RESERVED-Internet Assigned Numbers Authority</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>http://res-dom.iana.org</t>
-        </is>
-      </c>
+          <t>0815.film</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>whois.iana.org</t>
-        </is>
-      </c>
+      <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>2024-08-14 07:01:34</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>1995-08-14 04:00:00</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>2025-08-13 04:00:00</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>A.IANA-SERVERS.NET,B.IANA-SERVERS.NET</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>clientDeleteProhibited https://icann.org/epp#clientDeleteProhibited,clientTransferProhibited https://icann.org/epp#clientTransferProhibited,clientUpdateProhibited https://icann.org/epp#clientUpdateProhibited</t>
-        </is>
-      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>signedDelegation</t>
-        </is>
-      </c>
+      <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr"/>
       <c r="P5" t="inlineStr"/>
@@ -826,174 +646,1276 @@
       <c r="R5" t="inlineStr"/>
       <c r="S5" t="inlineStr"/>
       <c r="T5" t="inlineStr"/>
+      <c r="U5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>OPENAI.COM</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>MarkMonitor, Inc.</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>http://www.markmonitor.com</t>
-        </is>
-      </c>
+          <t>1-8.film</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>whois.markmonitor.com</t>
-        </is>
-      </c>
+      <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>[datetime.datetime(2024, 10, 17, 22, 20, 4), datetime.datetime(2024, 10, 17, 22, 2, 55, tzinfo=datetime.timezone.utc)]</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>[datetime.datetime(2007, 1, 19, 19, 28, 24), datetime.datetime(2007, 1, 19, 19, 28, 24, tzinfo=datetime.timezone.utc)]</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>[datetime.datetime(2029, 1, 19, 19, 28, 24), datetime.datetime(2029, 1, 19, 19, 28, 24, tzinfo=datetime.timezone.utc)]</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>NS1-02.AZURE-DNS.COM,NS2-02.AZURE-DNS.NET,NS3-02.AZURE-DNS.ORG,NS4-02.AZURE-DNS.INFO</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>clientDeleteProhibited https://icann.org/epp#clientDeleteProhibited,clientTransferProhibited https://icann.org/epp#clientTransferProhibited,clientUpdateProhibited https://icann.org/epp#clientUpdateProhibited,serverDeleteProhibited https://icann.org/epp#serverDeleteProhibited,serverTransferProhibited https://icann.org/epp#serverTransferProhibited,serverUpdateProhibited https://icann.org/epp#serverUpdateProhibited,clientUpdateProhibited (https://www.icann.org/epp#clientUpdateProhibited),clientTransferProhibited (https://www.icann.org/epp#clientTransferProhibited),clientDeleteProhibited (https://www.icann.org/epp#clientDeleteProhibited),serverUpdateProhibited (https://www.icann.org/epp#serverUpdateProhibited),serverTransferProhibited (https://www.icann.org/epp#serverTransferProhibited),serverDeleteProhibited (https://www.icann.org/epp#serverDeleteProhibited)</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>['abusecomplaints@markmonitor.com', 'whoisrequest@markmonitor.com']</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>unsigned</t>
-        </is>
-      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>OpenAI</t>
-        </is>
-      </c>
+      <c r="O6" t="inlineStr"/>
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr"/>
       <c r="S6" t="inlineStr"/>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
+      <c r="T6" t="inlineStr"/>
+      <c r="U6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>python.org</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Gandi SAS</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>http://www.gandi.net</t>
-        </is>
-      </c>
+          <t>10-13productions.film</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>http://whois.gandi.net</t>
-        </is>
-      </c>
+      <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>2025-06-17 21:22:38</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>1995-03-27 05:00:00</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>2033-03-28 05:00:00</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>ns-1134.awsdns-13.org,ns-2046.awsdns-63.co.uk,ns-484.awsdns-60.com,ns-981.awsdns-58.net</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>c,l,i,e,n,t,T,r,a,n,s,f,e,r,P,r,o,h,i,b,i,t,e,d, ,h,t,t,p,s,:,/,/,i,c,a,n,n,.,o,r,g,/,e,p,p,#,c,l,i,e,n,t,T,r,a,n,s,f,e,r,P,r,o,h,i,b,i,t,e,d</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>abuse@support.gandi.net</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>unsigned</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>REDACTED</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>Python Software Foundation</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>REDACTED</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>REDACTED</t>
-        </is>
-      </c>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>OR</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>REDACTED</t>
-        </is>
-      </c>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="inlineStr"/>
+      <c r="P7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr"/>
+      <c r="S7" t="inlineStr"/>
+      <c r="T7" t="inlineStr"/>
+      <c r="U7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>100.film</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
+      <c r="O8" t="inlineStr"/>
+      <c r="P8" t="inlineStr"/>
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr"/>
+      <c r="S8" t="inlineStr"/>
+      <c r="T8" t="inlineStr"/>
+      <c r="U8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>1000.film</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
+      <c r="O9" t="inlineStr"/>
+      <c r="P9" t="inlineStr"/>
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr"/>
+      <c r="S9" t="inlineStr"/>
+      <c r="T9" t="inlineStr"/>
+      <c r="U9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>1001.film</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr"/>
+      <c r="O10" t="inlineStr"/>
+      <c r="P10" t="inlineStr"/>
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr"/>
+      <c r="S10" t="inlineStr"/>
+      <c r="T10" t="inlineStr"/>
+      <c r="U10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>1009.film</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
+      <c r="O11" t="inlineStr"/>
+      <c r="P11" t="inlineStr"/>
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr"/>
+      <c r="S11" t="inlineStr"/>
+      <c r="T11" t="inlineStr"/>
+      <c r="U11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>100prcnt.film</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="inlineStr"/>
+      <c r="O12" t="inlineStr"/>
+      <c r="P12" t="inlineStr"/>
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr"/>
+      <c r="S12" t="inlineStr"/>
+      <c r="T12" t="inlineStr"/>
+      <c r="U12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>101.film</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="inlineStr"/>
+      <c r="O13" t="inlineStr"/>
+      <c r="P13" t="inlineStr"/>
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr"/>
+      <c r="S13" t="inlineStr"/>
+      <c r="T13" t="inlineStr"/>
+      <c r="U13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>1010.film</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="inlineStr"/>
+      <c r="O14" t="inlineStr"/>
+      <c r="P14" t="inlineStr"/>
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr"/>
+      <c r="S14" t="inlineStr"/>
+      <c r="T14" t="inlineStr"/>
+      <c r="U14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>1010ths.film</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="inlineStr"/>
+      <c r="O15" t="inlineStr"/>
+      <c r="P15" t="inlineStr"/>
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="inlineStr"/>
+      <c r="S15" t="inlineStr"/>
+      <c r="T15" t="inlineStr"/>
+      <c r="U15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>10best.film</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="inlineStr"/>
+      <c r="O16" t="inlineStr"/>
+      <c r="P16" t="inlineStr"/>
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="inlineStr"/>
+      <c r="S16" t="inlineStr"/>
+      <c r="T16" t="inlineStr"/>
+      <c r="U16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>10outof10.film</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="inlineStr"/>
+      <c r="O17" t="inlineStr"/>
+      <c r="P17" t="inlineStr"/>
+      <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="inlineStr"/>
+      <c r="S17" t="inlineStr"/>
+      <c r="T17" t="inlineStr"/>
+      <c r="U17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>10x.film</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="inlineStr"/>
+      <c r="O18" t="inlineStr"/>
+      <c r="P18" t="inlineStr"/>
+      <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="inlineStr"/>
+      <c r="S18" t="inlineStr"/>
+      <c r="T18" t="inlineStr"/>
+      <c r="U18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>11-8-16.film</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="inlineStr"/>
+      <c r="O19" t="inlineStr"/>
+      <c r="P19" t="inlineStr"/>
+      <c r="Q19" t="inlineStr"/>
+      <c r="R19" t="inlineStr"/>
+      <c r="S19" t="inlineStr"/>
+      <c r="T19" t="inlineStr"/>
+      <c r="U19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>110.film</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="inlineStr"/>
+      <c r="O20" t="inlineStr"/>
+      <c r="P20" t="inlineStr"/>
+      <c r="Q20" t="inlineStr"/>
+      <c r="R20" t="inlineStr"/>
+      <c r="S20" t="inlineStr"/>
+      <c r="T20" t="inlineStr"/>
+      <c r="U20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>1111.film</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="inlineStr"/>
+      <c r="O21" t="inlineStr"/>
+      <c r="P21" t="inlineStr"/>
+      <c r="Q21" t="inlineStr"/>
+      <c r="R21" t="inlineStr"/>
+      <c r="S21" t="inlineStr"/>
+      <c r="T21" t="inlineStr"/>
+      <c r="U21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>11productions.film</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr"/>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="inlineStr"/>
+      <c r="O22" t="inlineStr"/>
+      <c r="P22" t="inlineStr"/>
+      <c r="Q22" t="inlineStr"/>
+      <c r="R22" t="inlineStr"/>
+      <c r="S22" t="inlineStr"/>
+      <c r="T22" t="inlineStr"/>
+      <c r="U22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>11th.film</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr"/>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="inlineStr"/>
+      <c r="O23" t="inlineStr"/>
+      <c r="P23" t="inlineStr"/>
+      <c r="Q23" t="inlineStr"/>
+      <c r="R23" t="inlineStr"/>
+      <c r="S23" t="inlineStr"/>
+      <c r="T23" t="inlineStr"/>
+      <c r="U23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>11years.film</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr"/>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="inlineStr"/>
+      <c r="O24" t="inlineStr"/>
+      <c r="P24" t="inlineStr"/>
+      <c r="Q24" t="inlineStr"/>
+      <c r="R24" t="inlineStr"/>
+      <c r="S24" t="inlineStr"/>
+      <c r="T24" t="inlineStr"/>
+      <c r="U24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>120.film</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr"/>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="inlineStr"/>
+      <c r="O25" t="inlineStr"/>
+      <c r="P25" t="inlineStr"/>
+      <c r="Q25" t="inlineStr"/>
+      <c r="R25" t="inlineStr"/>
+      <c r="S25" t="inlineStr"/>
+      <c r="T25" t="inlineStr"/>
+      <c r="U25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>123.film</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr"/>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="inlineStr"/>
+      <c r="O26" t="inlineStr"/>
+      <c r="P26" t="inlineStr"/>
+      <c r="Q26" t="inlineStr"/>
+      <c r="R26" t="inlineStr"/>
+      <c r="S26" t="inlineStr"/>
+      <c r="T26" t="inlineStr"/>
+      <c r="U26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>123b.film</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr"/>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="inlineStr"/>
+      <c r="O27" t="inlineStr"/>
+      <c r="P27" t="inlineStr"/>
+      <c r="Q27" t="inlineStr"/>
+      <c r="R27" t="inlineStr"/>
+      <c r="S27" t="inlineStr"/>
+      <c r="T27" t="inlineStr"/>
+      <c r="U27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>123movies.film</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr"/>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="inlineStr"/>
+      <c r="O28" t="inlineStr"/>
+      <c r="P28" t="inlineStr"/>
+      <c r="Q28" t="inlineStr"/>
+      <c r="R28" t="inlineStr"/>
+      <c r="S28" t="inlineStr"/>
+      <c r="T28" t="inlineStr"/>
+      <c r="U28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>123movieshub.film</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr"/>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="inlineStr"/>
+      <c r="O29" t="inlineStr"/>
+      <c r="P29" t="inlineStr"/>
+      <c r="Q29" t="inlineStr"/>
+      <c r="R29" t="inlineStr"/>
+      <c r="S29" t="inlineStr"/>
+      <c r="T29" t="inlineStr"/>
+      <c r="U29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>123movieson.film</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr"/>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="inlineStr"/>
+      <c r="O30" t="inlineStr"/>
+      <c r="P30" t="inlineStr"/>
+      <c r="Q30" t="inlineStr"/>
+      <c r="R30" t="inlineStr"/>
+      <c r="S30" t="inlineStr"/>
+      <c r="T30" t="inlineStr"/>
+      <c r="U30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>123moviess.film</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr"/>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="inlineStr"/>
+      <c r="O31" t="inlineStr"/>
+      <c r="P31" t="inlineStr"/>
+      <c r="Q31" t="inlineStr"/>
+      <c r="R31" t="inlineStr"/>
+      <c r="S31" t="inlineStr"/>
+      <c r="T31" t="inlineStr"/>
+      <c r="U31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>123stream.film</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr"/>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="inlineStr"/>
+      <c r="O32" t="inlineStr"/>
+      <c r="P32" t="inlineStr"/>
+      <c r="Q32" t="inlineStr"/>
+      <c r="R32" t="inlineStr"/>
+      <c r="S32" t="inlineStr"/>
+      <c r="T32" t="inlineStr"/>
+      <c r="U32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>1337x.film</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr"/>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="inlineStr"/>
+      <c r="O33" t="inlineStr"/>
+      <c r="P33" t="inlineStr"/>
+      <c r="Q33" t="inlineStr"/>
+      <c r="R33" t="inlineStr"/>
+      <c r="S33" t="inlineStr"/>
+      <c r="T33" t="inlineStr"/>
+      <c r="U33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>13disciples.film</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr"/>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="inlineStr"/>
+      <c r="O34" t="inlineStr"/>
+      <c r="P34" t="inlineStr"/>
+      <c r="Q34" t="inlineStr"/>
+      <c r="R34" t="inlineStr"/>
+      <c r="S34" t="inlineStr"/>
+      <c r="T34" t="inlineStr"/>
+      <c r="U34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>1507.film</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr"/>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="inlineStr"/>
+      <c r="O35" t="inlineStr"/>
+      <c r="P35" t="inlineStr"/>
+      <c r="Q35" t="inlineStr"/>
+      <c r="R35" t="inlineStr"/>
+      <c r="S35" t="inlineStr"/>
+      <c r="T35" t="inlineStr"/>
+      <c r="U35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>16mm.film</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr"/>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="inlineStr"/>
+      <c r="O36" t="inlineStr"/>
+      <c r="P36" t="inlineStr"/>
+      <c r="Q36" t="inlineStr"/>
+      <c r="R36" t="inlineStr"/>
+      <c r="S36" t="inlineStr"/>
+      <c r="T36" t="inlineStr"/>
+      <c r="U36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>180grad.film</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr"/>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="inlineStr"/>
+      <c r="O37" t="inlineStr"/>
+      <c r="P37" t="inlineStr"/>
+      <c r="Q37" t="inlineStr"/>
+      <c r="R37" t="inlineStr"/>
+      <c r="S37" t="inlineStr"/>
+      <c r="T37" t="inlineStr"/>
+      <c r="U37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>1844.film</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr"/>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="inlineStr"/>
+      <c r="O38" t="inlineStr"/>
+      <c r="P38" t="inlineStr"/>
+      <c r="Q38" t="inlineStr"/>
+      <c r="R38" t="inlineStr"/>
+      <c r="S38" t="inlineStr"/>
+      <c r="T38" t="inlineStr"/>
+      <c r="U38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>1870.film</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr"/>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="inlineStr"/>
+      <c r="O39" t="inlineStr"/>
+      <c r="P39" t="inlineStr"/>
+      <c r="Q39" t="inlineStr"/>
+      <c r="R39" t="inlineStr"/>
+      <c r="S39" t="inlineStr"/>
+      <c r="T39" t="inlineStr"/>
+      <c r="U39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>18k.film</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr"/>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr"/>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="inlineStr"/>
+      <c r="O40" t="inlineStr"/>
+      <c r="P40" t="inlineStr"/>
+      <c r="Q40" t="inlineStr"/>
+      <c r="R40" t="inlineStr"/>
+      <c r="S40" t="inlineStr"/>
+      <c r="T40" t="inlineStr"/>
+      <c r="U40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>1958.film</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr"/>
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr"/>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="inlineStr"/>
+      <c r="O41" t="inlineStr"/>
+      <c r="P41" t="inlineStr"/>
+      <c r="Q41" t="inlineStr"/>
+      <c r="R41" t="inlineStr"/>
+      <c r="S41" t="inlineStr"/>
+      <c r="T41" t="inlineStr"/>
+      <c r="U41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>1969.film</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr"/>
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr"/>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="inlineStr"/>
+      <c r="O42" t="inlineStr"/>
+      <c r="P42" t="inlineStr"/>
+      <c r="Q42" t="inlineStr"/>
+      <c r="R42" t="inlineStr"/>
+      <c r="S42" t="inlineStr"/>
+      <c r="T42" t="inlineStr"/>
+      <c r="U42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>1974.film</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr"/>
+      <c r="C43" t="inlineStr"/>
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="inlineStr"/>
+      <c r="O43" t="inlineStr"/>
+      <c r="P43" t="inlineStr"/>
+      <c r="Q43" t="inlineStr"/>
+      <c r="R43" t="inlineStr"/>
+      <c r="S43" t="inlineStr"/>
+      <c r="T43" t="inlineStr"/>
+      <c r="U43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>1980s.film</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr"/>
+      <c r="C44" t="inlineStr"/>
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="inlineStr"/>
+      <c r="O44" t="inlineStr"/>
+      <c r="P44" t="inlineStr"/>
+      <c r="Q44" t="inlineStr"/>
+      <c r="R44" t="inlineStr"/>
+      <c r="S44" t="inlineStr"/>
+      <c r="T44" t="inlineStr"/>
+      <c r="U44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>1984.film</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr"/>
+      <c r="C45" t="inlineStr"/>
+      <c r="D45" t="inlineStr"/>
+      <c r="E45" t="inlineStr"/>
+      <c r="F45" t="inlineStr"/>
+      <c r="G45" t="inlineStr"/>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="inlineStr"/>
+      <c r="O45" t="inlineStr"/>
+      <c r="P45" t="inlineStr"/>
+      <c r="Q45" t="inlineStr"/>
+      <c r="R45" t="inlineStr"/>
+      <c r="S45" t="inlineStr"/>
+      <c r="T45" t="inlineStr"/>
+      <c r="U45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>1991.film</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr"/>
+      <c r="C46" t="inlineStr"/>
+      <c r="D46" t="inlineStr"/>
+      <c r="E46" t="inlineStr"/>
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="inlineStr"/>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="inlineStr"/>
+      <c r="O46" t="inlineStr"/>
+      <c r="P46" t="inlineStr"/>
+      <c r="Q46" t="inlineStr"/>
+      <c r="R46" t="inlineStr"/>
+      <c r="S46" t="inlineStr"/>
+      <c r="T46" t="inlineStr"/>
+      <c r="U46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>1999.film</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr"/>
+      <c r="C47" t="inlineStr"/>
+      <c r="D47" t="inlineStr"/>
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="inlineStr"/>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="inlineStr"/>
+      <c r="O47" t="inlineStr"/>
+      <c r="P47" t="inlineStr"/>
+      <c r="Q47" t="inlineStr"/>
+      <c r="R47" t="inlineStr"/>
+      <c r="S47" t="inlineStr"/>
+      <c r="T47" t="inlineStr"/>
+      <c r="U47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>19hours.film</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr"/>
+      <c r="C48" t="inlineStr"/>
+      <c r="D48" t="inlineStr"/>
+      <c r="E48" t="inlineStr"/>
+      <c r="F48" t="inlineStr"/>
+      <c r="G48" t="inlineStr"/>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="inlineStr"/>
+      <c r="O48" t="inlineStr"/>
+      <c r="P48" t="inlineStr"/>
+      <c r="Q48" t="inlineStr"/>
+      <c r="R48" t="inlineStr"/>
+      <c r="S48" t="inlineStr"/>
+      <c r="T48" t="inlineStr"/>
+      <c r="U48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>19m.film</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr"/>
+      <c r="C49" t="inlineStr"/>
+      <c r="D49" t="inlineStr"/>
+      <c r="E49" t="inlineStr"/>
+      <c r="F49" t="inlineStr"/>
+      <c r="G49" t="inlineStr"/>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="inlineStr"/>
+      <c r="O49" t="inlineStr"/>
+      <c r="P49" t="inlineStr"/>
+      <c r="Q49" t="inlineStr"/>
+      <c r="R49" t="inlineStr"/>
+      <c r="S49" t="inlineStr"/>
+      <c r="T49" t="inlineStr"/>
+      <c r="U49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>1ad.film</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr"/>
+      <c r="C50" t="inlineStr"/>
+      <c r="D50" t="inlineStr"/>
+      <c r="E50" t="inlineStr"/>
+      <c r="F50" t="inlineStr"/>
+      <c r="G50" t="inlineStr"/>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="inlineStr"/>
+      <c r="O50" t="inlineStr"/>
+      <c r="P50" t="inlineStr"/>
+      <c r="Q50" t="inlineStr"/>
+      <c r="R50" t="inlineStr"/>
+      <c r="S50" t="inlineStr"/>
+      <c r="T50" t="inlineStr"/>
+      <c r="U50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>1magination.film</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr"/>
+      <c r="C51" t="inlineStr"/>
+      <c r="D51" t="inlineStr"/>
+      <c r="E51" t="inlineStr"/>
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="inlineStr"/>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="inlineStr"/>
+      <c r="O51" t="inlineStr"/>
+      <c r="P51" t="inlineStr"/>
+      <c r="Q51" t="inlineStr"/>
+      <c r="R51" t="inlineStr"/>
+      <c r="S51" t="inlineStr"/>
+      <c r="T51" t="inlineStr"/>
+      <c r="U51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>1min.film</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr"/>
+      <c r="C52" t="inlineStr"/>
+      <c r="D52" t="inlineStr"/>
+      <c r="E52" t="inlineStr"/>
+      <c r="F52" t="inlineStr"/>
+      <c r="G52" t="inlineStr"/>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="inlineStr"/>
+      <c r="O52" t="inlineStr"/>
+      <c r="P52" t="inlineStr"/>
+      <c r="Q52" t="inlineStr"/>
+      <c r="R52" t="inlineStr"/>
+      <c r="S52" t="inlineStr"/>
+      <c r="T52" t="inlineStr"/>
+      <c r="U52" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
